--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3289.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3289.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.9425370478404573</v>
+        <v>1.147202253341675</v>
       </c>
       <c r="B1">
-        <v>2.263508880826228</v>
+        <v>2.443787813186646</v>
       </c>
       <c r="C1">
-        <v>3.846439742026805</v>
+        <v>3.605020523071289</v>
       </c>
       <c r="D1">
-        <v>3.040214035611594</v>
+        <v>1.451034784317017</v>
       </c>
       <c r="E1">
-        <v>1.249224969577254</v>
+        <v>0.9870454668998718</v>
       </c>
     </row>
   </sheetData>
